--- a/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0611332-DD38-4054-B4EF-FF2CBF815C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6079B65-D9F3-45C2-B66A-AE3EE0DDAA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C88D55F9-F994-4C57-A44E-08926D8EA3FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6DF31EB-B341-40EF-86A0-7CFF0A26DAAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>25,32%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -101,25 +104,28 @@
     <t>65,98%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>74,68%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,55 @@
     <t>35,29%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,109 +194,109 @@
     <t>28,51%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>71,49%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>32,05%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>69,45%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E15DFA3-8D2E-498B-8FC3-61292D9BF5FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4316AD6A-641D-4749-B48A-50B8FBABC556}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -850,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>578</v>
@@ -859,19 +865,19 @@
         <v>416164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>480</v>
@@ -880,13 +886,13 @@
         <v>355101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1050</v>
@@ -895,13 +901,13 @@
         <v>600155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1530</v>
@@ -910,13 +916,13 @@
         <v>955256</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -931,13 +937,13 @@
         <v>538217</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1422</v>
@@ -946,13 +952,13 @@
         <v>833203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2108</v>
@@ -961,18 +967,18 @@
         <v>1371420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -984,13 +990,13 @@
         <v>761111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>795</v>
@@ -999,13 +1005,13 @@
         <v>769656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1435</v>
@@ -1014,19 +1020,19 @@
         <v>1530768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1347</v>
@@ -1035,13 +1041,13 @@
         <v>1395745</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2117</v>
@@ -1050,13 +1056,13 @@
         <v>1473973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3464</v>
@@ -1065,13 +1071,13 @@
         <v>2869717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,13 +1092,13 @@
         <v>2156856</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2912</v>
@@ -1101,13 +1107,13 @@
         <v>2243629</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4899</v>
@@ -1116,18 +1122,18 @@
         <v>4400485</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1145,13 @@
         <v>191868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>195</v>
@@ -1154,13 +1160,13 @@
         <v>155081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -1169,19 +1175,19 @@
         <v>346949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>508</v>
@@ -1190,13 +1196,13 @@
         <v>481171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>808</v>
@@ -1205,28 +1211,28 @@
         <v>558129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1316</v>
       </c>
       <c r="N11" s="7">
-        <v>1039300</v>
+        <v>1039301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1247,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1003</v>
@@ -1256,28 +1262,28 @@
         <v>713210</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386249</v>
+        <v>1386250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>1136096</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1362</v>
@@ -1309,13 +1315,13 @@
         <v>1157786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2381</v>
@@ -1324,19 +1330,19 @@
         <v>2293881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2335</v>
@@ -1345,13 +1351,13 @@
         <v>2232016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3975</v>
@@ -1360,13 +1366,13 @@
         <v>2632256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6310</v>
@@ -1375,13 +1381,13 @@
         <v>4864273</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,13 +1402,13 @@
         <v>3368112</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5337</v>
@@ -1411,13 +1417,13 @@
         <v>3790042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8691</v>
@@ -1426,18 +1432,18 @@
         <v>7158154</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6079B65-D9F3-45C2-B66A-AE3EE0DDAA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FFCA6B-1CC1-483B-A803-D46FD3B52E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6DF31EB-B341-40EF-86A0-7CFF0A26DAAF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BAB505D1-BB07-4CC9-AEAB-7AF23EEAB2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Una o más de una ración</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4316AD6A-641D-4749-B48A-50B8FBABC556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640CF071-D3FC-49EF-83F9-7756AEB32A28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>183116</v>
+        <v>170848</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>372</v>
       </c>
       <c r="I4" s="7">
-        <v>233048</v>
+        <v>206049</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>578</v>
       </c>
       <c r="N4" s="7">
-        <v>416164</v>
+        <v>376897</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>480</v>
       </c>
       <c r="D5" s="7">
-        <v>355101</v>
+        <v>340861</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>1050</v>
       </c>
       <c r="I5" s="7">
-        <v>600155</v>
+        <v>546921</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>1530</v>
       </c>
       <c r="N5" s="7">
-        <v>955256</v>
+        <v>887782</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>686</v>
       </c>
       <c r="D6" s="7">
-        <v>538217</v>
+        <v>511709</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>1422</v>
       </c>
       <c r="I6" s="7">
-        <v>833203</v>
+        <v>752970</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>2108</v>
       </c>
       <c r="N6" s="7">
-        <v>1371420</v>
+        <v>1264679</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>640</v>
       </c>
       <c r="D7" s="7">
-        <v>761111</v>
+        <v>914433</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>795</v>
       </c>
       <c r="I7" s="7">
-        <v>769656</v>
+        <v>846511</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>1435</v>
       </c>
       <c r="N7" s="7">
-        <v>1530768</v>
+        <v>1760944</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>1347</v>
       </c>
       <c r="D8" s="7">
-        <v>1395745</v>
+        <v>1371116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>2117</v>
       </c>
       <c r="I8" s="7">
-        <v>1473973</v>
+        <v>1385895</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>3464</v>
       </c>
       <c r="N8" s="7">
-        <v>2869717</v>
+        <v>2757011</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>2156856</v>
+        <v>2285549</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>2912</v>
       </c>
       <c r="I9" s="7">
-        <v>2243629</v>
+        <v>2232406</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>4899</v>
       </c>
       <c r="N9" s="7">
-        <v>4400485</v>
+        <v>4517955</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>191868</v>
+        <v>183429</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1151,7 @@
         <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>155081</v>
+        <v>141437</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,16 +1166,16 @@
         <v>368</v>
       </c>
       <c r="N10" s="7">
-        <v>346949</v>
+        <v>324866</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,46 +1187,46 @@
         <v>508</v>
       </c>
       <c r="D11" s="7">
-        <v>481171</v>
+        <v>463194</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>808</v>
       </c>
       <c r="I11" s="7">
-        <v>558129</v>
+        <v>518376</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1316</v>
       </c>
       <c r="N11" s="7">
-        <v>1039301</v>
+        <v>981570</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1238,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713210</v>
+        <v>659813</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386250</v>
+        <v>1306436</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,46 +1291,46 @@
         <v>1019</v>
       </c>
       <c r="D13" s="7">
-        <v>1136096</v>
+        <v>1268710</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1362</v>
       </c>
       <c r="I13" s="7">
-        <v>1157786</v>
+        <v>1193997</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2381</v>
       </c>
       <c r="N13" s="7">
-        <v>2293881</v>
+        <v>2462707</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>2335</v>
       </c>
       <c r="D14" s="7">
-        <v>2232016</v>
+        <v>2175171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3975</v>
       </c>
       <c r="I14" s="7">
-        <v>2632256</v>
+        <v>2451193</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6310</v>
       </c>
       <c r="N14" s="7">
-        <v>4864273</v>
+        <v>4626364</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3354</v>
       </c>
       <c r="D15" s="7">
-        <v>3368112</v>
+        <v>3443881</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>5337</v>
       </c>
       <c r="I15" s="7">
-        <v>3790042</v>
+        <v>3645190</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>8691</v>
       </c>
       <c r="N15" s="7">
-        <v>7158154</v>
+        <v>7089071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
